--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_264.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_264.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,718 +488,692 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(112.24, 117.7)]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(116.7, 122.32)]</t>
+          <t>[('0:00:03.900000', '0:00:16.080000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:09.840000', '0:01:21.680000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(41.38, 43.34)]</t>
+          <t>[('0:01:42.160000', '0:01:53.900000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:39.800000', '0:00:48.280000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1405405405405405</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>[['G:7', 'C:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(8.26, 12.96)]</t>
+          <t>[['C:7', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[('0:00:06.100000', '0:00:12.860000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>[('0:00:39.386636', '0:00:52.146870')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>isophonics_235</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
+          <t>[['Eb', 'Bb', 'Eb']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(35.14, 39.9)]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(29.5, 31.64)]</t>
+          <t>[('0:00:51.839081', '0:01:03.042709')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:02:14.840000', '0:02:17.480000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4861111111111112</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['C', 'G', 'C', 'G', 'G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(68.98, 87.2)]</t>
+          <t>[['D/5', 'A', 'D', 'A', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(120.22, 121.92)]</t>
+          <t>[('0:00:05.272756', '0:00:18.241101')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:27.963197', '0:00:43.926916')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_280</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3860294117647059</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(121.74, 128.48)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(119.32, 124.32)]</t>
+          <t>[('0:01:01.683832', '0:01:11.056785')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:21.280000', '0:00:41.800000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.09064112011790715</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D', 'E', 'A'], ['A', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1064102564102564</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F', 'G', 'C'], ['C', 'D', 'G']]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(99.341337, 107.027142), (7.935986, 12.498707)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(4.394943, 8.342335), (17.014988, 20.892721)]</t>
+          <t>[('0:00:18.120000', '0:00:24.540000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
+          <t>[('0:00:00.465952', '0:00:05.272756')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56), (2.36, 5.68)]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86), (26.2, 33.96)]</t>
+          <t>[('0:00:25.480000', '0:00:32.800000'), ('0:01:14.500000', '0:01:20.420000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:37.880000', '0:01:48.980000'), ('0:00:47.580000', '0:00:50.040000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>schubert-winterreise_115</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.38, 6.26)]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(41.38, 43.34)]</t>
+          <t>[('0:00:09.900000', '0:00:34.680000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>[('0:00:43.120000', '0:00:59.640000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0882943143812709</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E', 'E/7', 'C#:min']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:maj', 'D:min']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(10.501791, 15.122562)]</t>
+          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(7.58, 14.88)]</t>
+          <t>[('0:00:01.360000', '0:00:06.460000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
+          <t>[('0:00:14.520000', '0:00:28.300000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_120</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_41</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(8.2, 12.66)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[('0:00:02.600000', '0:00:10.700000'), ('0:01:12.880000', '0:01:20.600000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:00.660000', '0:00:09.200000'), ('0:01:13.180000', '0:01:20.700000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(21.78, 28.04)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(62.1, 71.78)]</t>
+          <t>[('0:00:07.540000', '0:02:02.260000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:06.040000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7333333333333334</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(0.36, 127.8)]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(1.92, 149.88)]</t>
+          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(84.16, 92.42)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(101.44, 112.4)]</t>
+          <t>[('0:00:46.340000', '0:01:37.480000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:47.860000', '0:01:35.840000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0882943143812709</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'G:maj', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F', 'F/7', 'D:min']]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(7.96, 14.54)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(15.300272, 18.887755)]</t>
+          <t>[('0:01:18.320000', '0:01:39.600000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:21.620000', '0:01:43.560000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(88.18, 109.56)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(87.44, 110.44)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
